--- a/BalanceSheet/CCL_bal.xlsx
+++ b/BalanceSheet/CCL_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-1000000.0</v>
+        <v>312000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>6000000.0</v>
+        <v>335000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>13000000.0</v>
+        <v>349000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>73000000.0</v>
+        <v>362000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-15000000.0</v>
+        <v>440000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>427000000.0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-128000000.0</v>
+        <v>505000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-68000000.0</v>
+        <v>624000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-1149000000.0</v>
+        <v>691000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
+        <v>1809000000.0</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>904000000.0</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>148000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>756000000.0</v>
